--- a/codes/database.xlsx
+++ b/codes/database.xlsx
@@ -2,26 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kan\Box Sync\Personal\python\20200106CTComplex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E82A6FC-9DF4-426B-9E54-C4BF0F9D4783}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF876CB-D4BA-42FB-BCEC-69D7FA1E54DD}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="default" sheetId="1" r:id="rId1"/>
-    <sheet name="default2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="59">
   <si>
     <t>Acceptor</t>
   </si>
@@ -551,7 +545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -3504,1108 +3498,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E00BD98-CFDB-43F1-81B8-B293BAE3218E}">
-  <dimension ref="A1:AY7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2">
-        <v>1.5</v>
-      </c>
-      <c r="D2">
-        <v>-0.48</v>
-      </c>
-      <c r="E2">
-        <v>-0.48</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>630</v>
-      </c>
-      <c r="H2">
-        <v>5.5969689341712537E-4</v>
-      </c>
-      <c r="I2">
-        <v>4.1802971231941157E-6</v>
-      </c>
-      <c r="J2">
-        <v>0.25059999999999993</v>
-      </c>
-      <c r="K2">
-        <v>34.14</v>
-      </c>
-      <c r="L2">
-        <v>108.09599999999999</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>2</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>2</v>
-      </c>
-      <c r="R2">
-        <v>8</v>
-      </c>
-      <c r="S2">
-        <v>12</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>1.0977999999999999</v>
-      </c>
-      <c r="AF2">
-        <v>40.46</v>
-      </c>
-      <c r="AG2">
-        <v>110.11199999999998</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>2</v>
-      </c>
-      <c r="AJ2">
-        <v>2</v>
-      </c>
-      <c r="AK2">
-        <v>0</v>
-      </c>
-      <c r="AL2">
-        <v>2</v>
-      </c>
-      <c r="AM2">
-        <v>8</v>
-      </c>
-      <c r="AN2">
-        <v>14</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>1</v>
-      </c>
-      <c r="AQ2">
-        <v>1</v>
-      </c>
-      <c r="AR2">
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <v>0</v>
-      </c>
-      <c r="AT2">
-        <v>0</v>
-      </c>
-      <c r="AU2">
-        <v>0</v>
-      </c>
-      <c r="AV2">
-        <v>0</v>
-      </c>
-      <c r="AW2">
-        <v>1</v>
-      </c>
-      <c r="AX2">
-        <v>0</v>
-      </c>
-      <c r="AY2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3">
-        <v>1.5</v>
-      </c>
-      <c r="D3">
-        <v>-0.48</v>
-      </c>
-      <c r="E3">
-        <v>0.74</v>
-      </c>
-      <c r="F3">
-        <v>1.22</v>
-      </c>
-      <c r="G3">
-        <v>470</v>
-      </c>
-      <c r="H3">
-        <v>1.1695974246914216E-5</v>
-      </c>
-      <c r="I3">
-        <v>3.2625251280236182E-5</v>
-      </c>
-      <c r="J3">
-        <v>0.25059999999999993</v>
-      </c>
-      <c r="K3">
-        <v>34.14</v>
-      </c>
-      <c r="L3">
-        <v>108.09599999999999</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>2</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>2</v>
-      </c>
-      <c r="R3">
-        <v>8</v>
-      </c>
-      <c r="S3">
-        <v>12</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>4.3024000000000022</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>216.33000000000004</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>2</v>
-      </c>
-      <c r="AK3">
-        <v>0</v>
-      </c>
-      <c r="AL3">
-        <v>2</v>
-      </c>
-      <c r="AM3">
-        <v>14</v>
-      </c>
-      <c r="AN3">
-        <v>22</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>3</v>
-      </c>
-      <c r="AQ3">
-        <v>2</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>1</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>0</v>
-      </c>
-      <c r="AV3">
-        <v>1</v>
-      </c>
-      <c r="AW3">
-        <v>2</v>
-      </c>
-      <c r="AX3">
-        <v>0</v>
-      </c>
-      <c r="AY3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4">
-        <v>1.5</v>
-      </c>
-      <c r="D4">
-        <v>-0.48</v>
-      </c>
-      <c r="E4">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="F4">
-        <v>1.06</v>
-      </c>
-      <c r="G4">
-        <v>450</v>
-      </c>
-      <c r="H4">
-        <v>1.6681682993226718E-5</v>
-      </c>
-      <c r="I4">
-        <v>2.8104111029691555E-5</v>
-      </c>
-      <c r="J4">
-        <v>0.25059999999999993</v>
-      </c>
-      <c r="K4">
-        <v>34.14</v>
-      </c>
-      <c r="L4">
-        <v>108.09599999999999</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>2</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>2</v>
-      </c>
-      <c r="R4">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>12</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>3.5359000000000016</v>
-      </c>
-      <c r="AF4">
-        <v>21.259999999999998</v>
-      </c>
-      <c r="AG4">
-        <v>183.21000000000004</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>1</v>
-      </c>
-      <c r="AJ4">
-        <v>2</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>2</v>
-      </c>
-      <c r="AM4">
-        <v>14</v>
-      </c>
-      <c r="AN4">
-        <v>23</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>3</v>
-      </c>
-      <c r="AQ4">
-        <v>2</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>1</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>0</v>
-      </c>
-      <c r="AV4">
-        <v>1</v>
-      </c>
-      <c r="AW4">
-        <v>2</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5">
-        <v>1.5</v>
-      </c>
-      <c r="D5">
-        <v>0.19</v>
-      </c>
-      <c r="E5">
-        <v>1.39</v>
-      </c>
-      <c r="F5">
-        <v>1.2</v>
-      </c>
-      <c r="G5">
-        <v>750</v>
-      </c>
-      <c r="H5">
-        <v>5.9875795336081979E-6</v>
-      </c>
-      <c r="I5">
-        <v>4.7299552710251369E-5</v>
-      </c>
-      <c r="J5">
-        <v>8.232000000000006E-2</v>
-      </c>
-      <c r="K5">
-        <v>95.16</v>
-      </c>
-      <c r="L5">
-        <v>204.19199999999998</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>4</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>16</v>
-      </c>
-      <c r="S5">
-        <v>20</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>4.5840000000000023</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>202.25599999999997</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-      <c r="AK5">
-        <v>0</v>
-      </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
-        <v>16</v>
-      </c>
-      <c r="AN5">
-        <v>26</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>4</v>
-      </c>
-      <c r="AQ5">
-        <v>4</v>
-      </c>
-      <c r="AR5">
-        <v>0</v>
-      </c>
-      <c r="AS5">
-        <v>0</v>
-      </c>
-      <c r="AT5">
-        <v>0</v>
-      </c>
-      <c r="AU5">
-        <v>0</v>
-      </c>
-      <c r="AV5">
-        <v>0</v>
-      </c>
-      <c r="AW5">
-        <v>4</v>
-      </c>
-      <c r="AX5">
-        <v>0</v>
-      </c>
-      <c r="AY5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6">
-        <v>1.5</v>
-      </c>
-      <c r="D6">
-        <v>0.19</v>
-      </c>
-      <c r="E6">
-        <v>0.32</v>
-      </c>
-      <c r="F6">
-        <v>0.13</v>
-      </c>
-      <c r="G6">
-        <v>520</v>
-      </c>
-      <c r="H6">
-        <v>3.9175818087927204E-4</v>
-      </c>
-      <c r="I6">
-        <v>4.5930523955034344E-5</v>
-      </c>
-      <c r="J6">
-        <v>8.232000000000006E-2</v>
-      </c>
-      <c r="K6">
-        <v>95.16</v>
-      </c>
-      <c r="L6">
-        <v>204.19199999999998</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>4</v>
-      </c>
-      <c r="R6">
-        <v>16</v>
-      </c>
-      <c r="S6">
-        <v>20</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>1</v>
-      </c>
-      <c r="V6">
-        <v>1</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>1</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>4.0154000000000005</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>204.36600000000001</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>4</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>4</v>
-      </c>
-      <c r="AM6">
-        <v>10</v>
-      </c>
-      <c r="AN6">
-        <v>14</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>2</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>2</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>2</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7">
-        <v>1.5</v>
-      </c>
-      <c r="D7">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E7">
-        <v>0.32</v>
-      </c>
-      <c r="F7">
-        <v>0.30399999999999999</v>
-      </c>
-      <c r="G7">
-        <v>350.00000000000006</v>
-      </c>
-      <c r="H7">
-        <v>1.971736342816675E-5</v>
-      </c>
-      <c r="I7">
-        <v>3.4425464205719051E-6</v>
-      </c>
-      <c r="J7">
-        <v>2.5165999999999999</v>
-      </c>
-      <c r="K7">
-        <v>34.14</v>
-      </c>
-      <c r="L7">
-        <v>245.876</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>2</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>6</v>
-      </c>
-      <c r="R7">
-        <v>12</v>
-      </c>
-      <c r="S7">
-        <v>12</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>4.0154000000000005</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>204.36600000000001</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>4</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>4</v>
-      </c>
-      <c r="AM7">
-        <v>10</v>
-      </c>
-      <c r="AN7">
-        <v>14</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>2</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>2</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>2</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A2:AY7">
-    <sortCondition ref="C2:C7"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
 </file>